--- a/data/pca/factorExposure/factorExposure_2011-08-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.02063510035896551</v>
+        <v>0.01786552578024926</v>
       </c>
       <c r="C2">
-        <v>0.01289721876603034</v>
+        <v>0.006930389702187703</v>
       </c>
       <c r="D2">
-        <v>-0.04327175168164876</v>
+        <v>-0.02961777603084802</v>
       </c>
       <c r="E2">
-        <v>-0.06928339921040576</v>
+        <v>-0.03904041245270956</v>
       </c>
       <c r="F2">
-        <v>0.001388233015640262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0227171639071821</v>
+      </c>
+      <c r="G2">
+        <v>0.01628035720073184</v>
+      </c>
+      <c r="H2">
+        <v>-0.01535798190251643</v>
+      </c>
+      <c r="I2">
+        <v>-0.007067045277908221</v>
+      </c>
+      <c r="J2">
+        <v>-0.03779695306063394</v>
+      </c>
+      <c r="K2">
+        <v>0.07093530351894271</v>
+      </c>
+      <c r="L2">
+        <v>0.05797800265466234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.07640609824347876</v>
+        <v>0.09299175362005821</v>
       </c>
       <c r="C4">
-        <v>0.04206499074689445</v>
+        <v>0.05090489668496851</v>
       </c>
       <c r="D4">
-        <v>-0.05483350508096115</v>
+        <v>-0.02875056251939682</v>
       </c>
       <c r="E4">
-        <v>-0.02074055500980945</v>
+        <v>-0.03185582046656663</v>
       </c>
       <c r="F4">
-        <v>0.0271992701647535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07982254320753121</v>
+      </c>
+      <c r="G4">
+        <v>0.03894898953813399</v>
+      </c>
+      <c r="H4">
+        <v>-0.009615822096910261</v>
+      </c>
+      <c r="I4">
+        <v>0.07375346249308885</v>
+      </c>
+      <c r="J4">
+        <v>0.008779876879360691</v>
+      </c>
+      <c r="K4">
+        <v>-0.05245813527792469</v>
+      </c>
+      <c r="L4">
+        <v>-0.04003712461526127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.124231307639907</v>
+        <v>0.1325107607735757</v>
       </c>
       <c r="C6">
-        <v>0.00757012808129072</v>
+        <v>0.01634161968142262</v>
       </c>
       <c r="D6">
-        <v>-0.06146192395255729</v>
+        <v>-0.0619090663256503</v>
       </c>
       <c r="E6">
-        <v>-0.07405619940949762</v>
+        <v>-0.01847714228284553</v>
       </c>
       <c r="F6">
-        <v>0.04353712926719639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.05659467781755603</v>
+      </c>
+      <c r="G6">
+        <v>0.06774269995300668</v>
+      </c>
+      <c r="H6">
+        <v>0.1722739449010786</v>
+      </c>
+      <c r="I6">
+        <v>0.1035202120692723</v>
+      </c>
+      <c r="J6">
+        <v>0.4390843455029207</v>
+      </c>
+      <c r="K6">
+        <v>0.02056318571860781</v>
+      </c>
+      <c r="L6">
+        <v>-0.03425094054117717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.06832418568775216</v>
+        <v>0.06927104002787514</v>
       </c>
       <c r="C7">
-        <v>0.009432764090382899</v>
+        <v>0.04901296392717235</v>
       </c>
       <c r="D7">
-        <v>-0.05356914779315881</v>
+        <v>-0.04544765664316025</v>
       </c>
       <c r="E7">
-        <v>-0.05987024658496657</v>
+        <v>-0.03476052571785062</v>
       </c>
       <c r="F7">
-        <v>-0.00246153835671831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0369054277329009</v>
+      </c>
+      <c r="G7">
+        <v>-0.01690277631900369</v>
+      </c>
+      <c r="H7">
+        <v>-0.006520135959681807</v>
+      </c>
+      <c r="I7">
+        <v>0.02540697067818745</v>
+      </c>
+      <c r="J7">
+        <v>-0.06790588065220489</v>
+      </c>
+      <c r="K7">
+        <v>-0.0754959520737305</v>
+      </c>
+      <c r="L7">
+        <v>0.03176261778991893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03600176085872082</v>
+        <v>0.04025036329237498</v>
       </c>
       <c r="C8">
-        <v>0.04836340210596061</v>
+        <v>0.02048810538865409</v>
       </c>
       <c r="D8">
-        <v>0.007038556642213894</v>
+        <v>0.007668328620245666</v>
       </c>
       <c r="E8">
-        <v>-0.05779310900095423</v>
+        <v>-0.06899424574992546</v>
       </c>
       <c r="F8">
-        <v>0.03310355154345034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02974506357276271</v>
+      </c>
+      <c r="G8">
+        <v>0.06174269301733333</v>
+      </c>
+      <c r="H8">
+        <v>0.01207159751399068</v>
+      </c>
+      <c r="I8">
+        <v>0.09796594569597281</v>
+      </c>
+      <c r="J8">
+        <v>-0.01161016221759575</v>
+      </c>
+      <c r="K8">
+        <v>-0.04757633534806566</v>
+      </c>
+      <c r="L8">
+        <v>-0.0689134777656089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.0771886761095559</v>
+        <v>0.08538300497954152</v>
       </c>
       <c r="C9">
-        <v>0.05400553194987966</v>
+        <v>0.05387754446439108</v>
       </c>
       <c r="D9">
-        <v>-0.05086547393859398</v>
+        <v>-0.02826635268570098</v>
       </c>
       <c r="E9">
-        <v>-0.02360695049275181</v>
+        <v>-0.02233660798441758</v>
       </c>
       <c r="F9">
-        <v>0.01831483340949457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.06421116184881678</v>
+      </c>
+      <c r="G9">
+        <v>0.04702440036566822</v>
+      </c>
+      <c r="H9">
+        <v>-0.008826109330520551</v>
+      </c>
+      <c r="I9">
+        <v>0.08335227367019453</v>
+      </c>
+      <c r="J9">
+        <v>0.0009036433237273381</v>
+      </c>
+      <c r="K9">
+        <v>-0.03288067069174264</v>
+      </c>
+      <c r="L9">
+        <v>-0.04569640063049622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.02157859206617889</v>
+        <v>0.0747126790846728</v>
       </c>
       <c r="C10">
-        <v>-0.1585762337779624</v>
+        <v>-0.1924813027275247</v>
       </c>
       <c r="D10">
-        <v>0.01165493764709507</v>
+        <v>-0.006282724671972511</v>
       </c>
       <c r="E10">
-        <v>-0.07466922045028455</v>
+        <v>-0.05014694973102757</v>
       </c>
       <c r="F10">
-        <v>0.04007744479058832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0333016912122907</v>
+      </c>
+      <c r="G10">
+        <v>-0.05457019002275897</v>
+      </c>
+      <c r="H10">
+        <v>0.02485372176225456</v>
+      </c>
+      <c r="I10">
+        <v>-0.03325023897915727</v>
+      </c>
+      <c r="J10">
+        <v>-0.02154714989289559</v>
+      </c>
+      <c r="K10">
+        <v>0.00948287064162069</v>
+      </c>
+      <c r="L10">
+        <v>0.01704250542332305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07163705062728699</v>
+        <v>0.07359430532671357</v>
       </c>
       <c r="C11">
-        <v>0.06432758912166306</v>
+        <v>0.06159328577967289</v>
       </c>
       <c r="D11">
-        <v>-0.04372561027907412</v>
+        <v>-0.03186911879429154</v>
       </c>
       <c r="E11">
-        <v>-0.03346003611948048</v>
+        <v>-0.01767874694623735</v>
       </c>
       <c r="F11">
-        <v>-0.01120260281790798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02850745288768312</v>
+      </c>
+      <c r="G11">
+        <v>0.06736419641629997</v>
+      </c>
+      <c r="H11">
+        <v>-0.02020685599003691</v>
+      </c>
+      <c r="I11">
+        <v>0.05142211344137792</v>
+      </c>
+      <c r="J11">
+        <v>-0.07763700930002644</v>
+      </c>
+      <c r="K11">
+        <v>0.03143977353013007</v>
+      </c>
+      <c r="L11">
+        <v>-0.02985871554742722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06821925784558258</v>
+        <v>0.07238863497560445</v>
       </c>
       <c r="C12">
-        <v>0.04740854720838866</v>
+        <v>0.05088676490052567</v>
       </c>
       <c r="D12">
-        <v>-0.04494401576184583</v>
+        <v>-0.02042475918979904</v>
       </c>
       <c r="E12">
-        <v>-0.02185422831186599</v>
+        <v>-0.01087789642468072</v>
       </c>
       <c r="F12">
-        <v>0.0004135209189361723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03725530175692237</v>
+      </c>
+      <c r="G12">
+        <v>0.05543659948261156</v>
+      </c>
+      <c r="H12">
+        <v>-3.696280080607856e-05</v>
+      </c>
+      <c r="I12">
+        <v>0.07790751991461994</v>
+      </c>
+      <c r="J12">
+        <v>-0.07124615428029571</v>
+      </c>
+      <c r="K12">
+        <v>0.004748686392270236</v>
+      </c>
+      <c r="L12">
+        <v>-0.01710657260027069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.07801244628329218</v>
+        <v>0.06749960633446825</v>
       </c>
       <c r="C13">
-        <v>0.02626302507255004</v>
+        <v>0.03442424720436717</v>
       </c>
       <c r="D13">
-        <v>-0.02536139032481521</v>
+        <v>0.01558335698064139</v>
       </c>
       <c r="E13">
-        <v>-0.02255043499836846</v>
+        <v>-0.02570742588437014</v>
       </c>
       <c r="F13">
-        <v>0.01030247327091667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02886470895253361</v>
+      </c>
+      <c r="G13">
+        <v>0.02444488202627847</v>
+      </c>
+      <c r="H13">
+        <v>-0.01069563882141688</v>
+      </c>
+      <c r="I13">
+        <v>0.06260777368737711</v>
+      </c>
+      <c r="J13">
+        <v>-0.02991395678994642</v>
+      </c>
+      <c r="K13">
+        <v>-0.102464968615616</v>
+      </c>
+      <c r="L13">
+        <v>-0.02217865426592707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.0345984654380411</v>
+        <v>0.0444247793673633</v>
       </c>
       <c r="C14">
-        <v>-0.008972368908587597</v>
+        <v>0.008311974840869442</v>
       </c>
       <c r="D14">
-        <v>-0.03377781901048987</v>
+        <v>-0.02861359508755178</v>
       </c>
       <c r="E14">
-        <v>-0.008984546231723029</v>
+        <v>-0.004175746211343672</v>
       </c>
       <c r="F14">
-        <v>0.01530975441646144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03945356774948076</v>
+      </c>
+      <c r="G14">
+        <v>0.03149322554048611</v>
+      </c>
+      <c r="H14">
+        <v>-0.04584658395735013</v>
+      </c>
+      <c r="I14">
+        <v>0.0560165386279326</v>
+      </c>
+      <c r="J14">
+        <v>0.01102046574413715</v>
+      </c>
+      <c r="K14">
+        <v>-0.05193682053165218</v>
+      </c>
+      <c r="L14">
+        <v>-0.03406696414636064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.05682114368930673</v>
+        <v>0.04400405820975963</v>
       </c>
       <c r="C15">
-        <v>0.0131062580634739</v>
+        <v>0.01605411894108128</v>
       </c>
       <c r="D15">
-        <v>-0.01646954405180003</v>
+        <v>0.01343960143108199</v>
       </c>
       <c r="E15">
-        <v>-0.01081975740808894</v>
+        <v>0.001540030799170803</v>
       </c>
       <c r="F15">
-        <v>0.03263340167631583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03182060259326165</v>
+      </c>
+      <c r="G15">
+        <v>0.01364323161136581</v>
+      </c>
+      <c r="H15">
+        <v>-0.01033932508834729</v>
+      </c>
+      <c r="I15">
+        <v>0.03062449244660424</v>
+      </c>
+      <c r="J15">
+        <v>0.03581157687126122</v>
+      </c>
+      <c r="K15">
+        <v>-0.06889659614578934</v>
+      </c>
+      <c r="L15">
+        <v>-0.02034800928493901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.06104153794930734</v>
+        <v>0.07382183850772295</v>
       </c>
       <c r="C16">
-        <v>0.06248486599500044</v>
+        <v>0.06077529002028605</v>
       </c>
       <c r="D16">
-        <v>-0.04386802064026155</v>
+        <v>-0.02703377335192866</v>
       </c>
       <c r="E16">
-        <v>-0.02211054867277197</v>
+        <v>-0.01249903791973738</v>
       </c>
       <c r="F16">
-        <v>0.01108135083161651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04326021448089244</v>
+      </c>
+      <c r="G16">
+        <v>0.04629269997713494</v>
+      </c>
+      <c r="H16">
+        <v>-0.02085361582883135</v>
+      </c>
+      <c r="I16">
+        <v>0.04858354567144749</v>
+      </c>
+      <c r="J16">
+        <v>-0.05397359226000597</v>
+      </c>
+      <c r="K16">
+        <v>0.01465672991984996</v>
+      </c>
+      <c r="L16">
+        <v>-0.02939674601712764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.06396468711930618</v>
+        <v>0.0595639676109005</v>
       </c>
       <c r="C20">
-        <v>0.04620756098709369</v>
+        <v>0.03594201008632885</v>
       </c>
       <c r="D20">
-        <v>-0.01959746154472861</v>
+        <v>-0.01652062799408792</v>
       </c>
       <c r="E20">
-        <v>-0.02960329030883471</v>
+        <v>-0.01904489087030252</v>
       </c>
       <c r="F20">
-        <v>0.014439868314526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01143071908176336</v>
+      </c>
+      <c r="G20">
+        <v>0.04861106048794391</v>
+      </c>
+      <c r="H20">
+        <v>-0.03422399363104677</v>
+      </c>
+      <c r="I20">
+        <v>0.1167080914628428</v>
+      </c>
+      <c r="J20">
+        <v>-0.03550468502369006</v>
+      </c>
+      <c r="K20">
+        <v>-0.04512783654628207</v>
+      </c>
+      <c r="L20">
+        <v>0.02242960223656773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.03847109038083798</v>
+        <v>0.02845930681703324</v>
       </c>
       <c r="C21">
-        <v>0.01818178613176732</v>
+        <v>0.02383097256950285</v>
       </c>
       <c r="D21">
-        <v>0.02369967859885843</v>
+        <v>0.03143758475005485</v>
       </c>
       <c r="E21">
-        <v>-0.01677957535763271</v>
+        <v>-0.0134774334001969</v>
       </c>
       <c r="F21">
-        <v>0.05687656334053381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01170236558063427</v>
+      </c>
+      <c r="G21">
+        <v>0.008612235663790222</v>
+      </c>
+      <c r="H21">
+        <v>0.06212898234524705</v>
+      </c>
+      <c r="I21">
+        <v>0.06137972117809305</v>
+      </c>
+      <c r="J21">
+        <v>0.0527416368719059</v>
+      </c>
+      <c r="K21">
+        <v>-0.05416878967032382</v>
+      </c>
+      <c r="L21">
+        <v>-0.01384818890611564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.1192184739744436</v>
+        <v>0.09008450599786737</v>
       </c>
       <c r="C22">
-        <v>0.1167105521769871</v>
+        <v>0.08609915122884731</v>
       </c>
       <c r="D22">
-        <v>0.02314588124485526</v>
+        <v>0.404975364897061</v>
       </c>
       <c r="E22">
-        <v>8.265095497000554e-05</v>
+        <v>-0.1297633676181658</v>
       </c>
       <c r="F22">
-        <v>0.3866076781897991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3836909816737955</v>
+      </c>
+      <c r="G22">
+        <v>-0.2851244636503352</v>
+      </c>
+      <c r="H22">
+        <v>0.05175936977983663</v>
+      </c>
+      <c r="I22">
+        <v>-0.1950038028454535</v>
+      </c>
+      <c r="J22">
+        <v>0.03471829172731275</v>
+      </c>
+      <c r="K22">
+        <v>0.04056561782396427</v>
+      </c>
+      <c r="L22">
+        <v>0.06421713288935459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.1202381617727745</v>
+        <v>0.09103839059445709</v>
       </c>
       <c r="C23">
-        <v>0.1159388137481975</v>
+        <v>0.08642120726682063</v>
       </c>
       <c r="D23">
-        <v>0.02115019099233039</v>
+        <v>0.4053615320805798</v>
       </c>
       <c r="E23">
-        <v>-0.0008949111144076355</v>
+        <v>-0.1310140072385337</v>
       </c>
       <c r="F23">
-        <v>0.3888166329089132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3883185634034677</v>
+      </c>
+      <c r="G23">
+        <v>-0.2801304127038138</v>
+      </c>
+      <c r="H23">
+        <v>0.05047877576427005</v>
+      </c>
+      <c r="I23">
+        <v>-0.1954040756590811</v>
+      </c>
+      <c r="J23">
+        <v>0.04061606723887806</v>
+      </c>
+      <c r="K23">
+        <v>0.04248172160012288</v>
+      </c>
+      <c r="L23">
+        <v>0.06486785200224142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08246230765588608</v>
+        <v>0.08290715760302236</v>
       </c>
       <c r="C24">
-        <v>0.06008952356802319</v>
+        <v>0.05953808523564014</v>
       </c>
       <c r="D24">
-        <v>-0.04133924176713657</v>
+        <v>-0.01765057941706282</v>
       </c>
       <c r="E24">
-        <v>-0.03611761565675776</v>
+        <v>-0.02327772768424424</v>
       </c>
       <c r="F24">
-        <v>0.01902684008184224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04631000470991637</v>
+      </c>
+      <c r="G24">
+        <v>0.06400853811562433</v>
+      </c>
+      <c r="H24">
+        <v>-0.0004757127784579904</v>
+      </c>
+      <c r="I24">
+        <v>0.06411540970131784</v>
+      </c>
+      <c r="J24">
+        <v>-0.05473620822400536</v>
+      </c>
+      <c r="K24">
+        <v>0.01808878930663823</v>
+      </c>
+      <c r="L24">
+        <v>-0.03405627060248417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07740158342910461</v>
+        <v>0.07779611513037156</v>
       </c>
       <c r="C25">
-        <v>0.04940123311536105</v>
+        <v>0.04530984316089604</v>
       </c>
       <c r="D25">
-        <v>-0.05274462355539602</v>
+        <v>-0.03041152417450054</v>
       </c>
       <c r="E25">
-        <v>-0.04581084573124283</v>
+        <v>-0.01950687082046288</v>
       </c>
       <c r="F25">
-        <v>0.0273588323312461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04971985572020547</v>
+      </c>
+      <c r="G25">
+        <v>0.05837968596224093</v>
+      </c>
+      <c r="H25">
+        <v>-0.01863458559797107</v>
+      </c>
+      <c r="I25">
+        <v>0.08125893785136262</v>
+      </c>
+      <c r="J25">
+        <v>-0.06174754682131973</v>
+      </c>
+      <c r="K25">
+        <v>0.03474671723529411</v>
+      </c>
+      <c r="L25">
+        <v>-0.02147274211846055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05238636794410977</v>
+        <v>0.04595972607736783</v>
       </c>
       <c r="C26">
-        <v>0.01337373594647342</v>
+        <v>0.02454955676256712</v>
       </c>
       <c r="D26">
-        <v>-0.004536582911086595</v>
+        <v>0.01458817505643382</v>
       </c>
       <c r="E26">
-        <v>-0.03519897728775644</v>
+        <v>-0.01007497428443349</v>
       </c>
       <c r="F26">
-        <v>-0.01753142359721659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01542968246795815</v>
+      </c>
+      <c r="G26">
+        <v>0.02131384131217665</v>
+      </c>
+      <c r="H26">
+        <v>-0.02620041423418625</v>
+      </c>
+      <c r="I26">
+        <v>0.0279486377626877</v>
+      </c>
+      <c r="J26">
+        <v>0.02057804968760994</v>
+      </c>
+      <c r="K26">
+        <v>-0.124457813473299</v>
+      </c>
+      <c r="L26">
+        <v>-0.003816828310612755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.05367156591291831</v>
+        <v>0.09298033679085339</v>
       </c>
       <c r="C28">
-        <v>-0.2969744879401551</v>
+        <v>-0.2948061526605739</v>
       </c>
       <c r="D28">
-        <v>0.02708797773080363</v>
+        <v>0.01720374611103921</v>
       </c>
       <c r="E28">
-        <v>-0.07846729953523972</v>
+        <v>-0.0377148465425699</v>
       </c>
       <c r="F28">
-        <v>-0.002282112707288124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0035988051405613</v>
+      </c>
+      <c r="G28">
+        <v>0.007340835501762007</v>
+      </c>
+      <c r="H28">
+        <v>0.03579889041839174</v>
+      </c>
+      <c r="I28">
+        <v>-0.02462893196145575</v>
+      </c>
+      <c r="J28">
+        <v>0.01462334614975593</v>
+      </c>
+      <c r="K28">
+        <v>-0.05622989535363512</v>
+      </c>
+      <c r="L28">
+        <v>-0.0350377402430228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05687386557502307</v>
+        <v>0.05360993421726638</v>
       </c>
       <c r="C29">
-        <v>-0.004955770957152308</v>
+        <v>0.01130518315057649</v>
       </c>
       <c r="D29">
-        <v>-0.0316771396160442</v>
+        <v>-0.01519740499494334</v>
       </c>
       <c r="E29">
-        <v>-0.02275563161970577</v>
+        <v>-0.02088718384359507</v>
       </c>
       <c r="F29">
-        <v>0.03570311265034142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03947004941169717</v>
+      </c>
+      <c r="G29">
+        <v>0.03078857470789635</v>
+      </c>
+      <c r="H29">
+        <v>-0.05472085694196469</v>
+      </c>
+      <c r="I29">
+        <v>0.03724349527088961</v>
+      </c>
+      <c r="J29">
+        <v>0.0129203838923806</v>
+      </c>
+      <c r="K29">
+        <v>-0.04118951396803119</v>
+      </c>
+      <c r="L29">
+        <v>0.001011713157523316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1502987041631223</v>
+        <v>0.1275272087708393</v>
       </c>
       <c r="C30">
-        <v>0.05977306706109972</v>
+        <v>0.0585415025646489</v>
       </c>
       <c r="D30">
-        <v>-0.07818232742724475</v>
+        <v>-0.004212228718032232</v>
       </c>
       <c r="E30">
-        <v>-0.06319106619878195</v>
+        <v>-0.0630585574013678</v>
       </c>
       <c r="F30">
-        <v>0.05397296796769045</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1153432377136946</v>
+      </c>
+      <c r="G30">
+        <v>0.08332185120736145</v>
+      </c>
+      <c r="H30">
+        <v>0.08724080647555059</v>
+      </c>
+      <c r="I30">
+        <v>0.2211616299081788</v>
+      </c>
+      <c r="J30">
+        <v>-0.1588703323394709</v>
+      </c>
+      <c r="K30">
+        <v>-0.2690342743804445</v>
+      </c>
+      <c r="L30">
+        <v>0.1497164339409138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.06110265173387689</v>
+        <v>0.04773191608815971</v>
       </c>
       <c r="C31">
-        <v>0.01857018283215375</v>
+        <v>0.04143416056265164</v>
       </c>
       <c r="D31">
-        <v>-0.03309091459305494</v>
+        <v>-0.0001243576780013572</v>
       </c>
       <c r="E31">
-        <v>-0.002249114805701382</v>
+        <v>0.006168207326586019</v>
       </c>
       <c r="F31">
-        <v>-0.001308246256671014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02335623201075202</v>
+      </c>
+      <c r="G31">
+        <v>0.00127535917097994</v>
+      </c>
+      <c r="H31">
+        <v>-0.05652021718316037</v>
+      </c>
+      <c r="I31">
+        <v>0.04282185756395999</v>
+      </c>
+      <c r="J31">
+        <v>0.01426666303049405</v>
+      </c>
+      <c r="K31">
+        <v>-0.01945459604240791</v>
+      </c>
+      <c r="L31">
+        <v>0.01603925121516601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.04256953966789612</v>
+        <v>0.04846375562218125</v>
       </c>
       <c r="C32">
-        <v>0.005283689546462377</v>
+        <v>-0.007385113269006055</v>
       </c>
       <c r="D32">
-        <v>0.002792254599151838</v>
+        <v>0.03808446013664886</v>
       </c>
       <c r="E32">
-        <v>0.009388943168565179</v>
+        <v>-0.01205638404223287</v>
       </c>
       <c r="F32">
-        <v>0.05282407945702801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05254075089709442</v>
+      </c>
+      <c r="G32">
+        <v>-0.005271632445979677</v>
+      </c>
+      <c r="H32">
+        <v>-0.002081204004879744</v>
+      </c>
+      <c r="I32">
+        <v>-0.0122424923444656</v>
+      </c>
+      <c r="J32">
+        <v>-0.01564988928082347</v>
+      </c>
+      <c r="K32">
+        <v>-0.1319882652675451</v>
+      </c>
+      <c r="L32">
+        <v>-0.005311467447951693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1013334162823998</v>
+        <v>0.1054865131045041</v>
       </c>
       <c r="C33">
-        <v>0.02649454632245652</v>
+        <v>0.04692541726287767</v>
       </c>
       <c r="D33">
-        <v>-0.04260362973994514</v>
+        <v>-0.006573441234242325</v>
       </c>
       <c r="E33">
-        <v>-0.009832946322101077</v>
+        <v>0.01929672237603749</v>
       </c>
       <c r="F33">
-        <v>-0.01930650464030035</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03753303780643426</v>
+      </c>
+      <c r="G33">
+        <v>0.028437482062525</v>
+      </c>
+      <c r="H33">
+        <v>-0.03742723215714096</v>
+      </c>
+      <c r="I33">
+        <v>0.06742415412623867</v>
+      </c>
+      <c r="J33">
+        <v>-0.01045079120481539</v>
+      </c>
+      <c r="K33">
+        <v>-0.03615373674230931</v>
+      </c>
+      <c r="L33">
+        <v>-0.06831784939751409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.06240457107099203</v>
+        <v>0.0693155171811248</v>
       </c>
       <c r="C34">
-        <v>0.06337509645800973</v>
+        <v>0.05040847211514347</v>
       </c>
       <c r="D34">
-        <v>-0.03344342749046863</v>
+        <v>-0.01982912777799424</v>
       </c>
       <c r="E34">
-        <v>-0.02166321137448227</v>
+        <v>-0.009314512476646322</v>
       </c>
       <c r="F34">
-        <v>0.02941863899039197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03450540054018785</v>
+      </c>
+      <c r="G34">
+        <v>0.0513935360912158</v>
+      </c>
+      <c r="H34">
+        <v>-0.0272327039430133</v>
+      </c>
+      <c r="I34">
+        <v>0.05965268949255934</v>
+      </c>
+      <c r="J34">
+        <v>-0.04266167367075342</v>
+      </c>
+      <c r="K34">
+        <v>0.03728628721126159</v>
+      </c>
+      <c r="L34">
+        <v>-0.04498640853720271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04133930852738489</v>
+        <v>0.03472137656377327</v>
       </c>
       <c r="C35">
-        <v>0.009299961125038156</v>
+        <v>0.02143801959682246</v>
       </c>
       <c r="D35">
-        <v>-0.02088086473644145</v>
+        <v>-0.008263149646349598</v>
       </c>
       <c r="E35">
-        <v>-0.002839211581975722</v>
+        <v>0.008512861807240079</v>
       </c>
       <c r="F35">
-        <v>0.01184547809648296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01953243793054653</v>
+      </c>
+      <c r="G35">
+        <v>-0.00852556362534895</v>
+      </c>
+      <c r="H35">
+        <v>-0.02615027478629414</v>
+      </c>
+      <c r="I35">
+        <v>0.06152448787597575</v>
+      </c>
+      <c r="J35">
+        <v>-0.02684377366584437</v>
+      </c>
+      <c r="K35">
+        <v>-0.02411523660732506</v>
+      </c>
+      <c r="L35">
+        <v>0.02467042720515164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03749514558021375</v>
+        <v>0.03338487721410844</v>
       </c>
       <c r="C36">
-        <v>0.01112569751188144</v>
+        <v>0.01298827622692907</v>
       </c>
       <c r="D36">
-        <v>-0.01492359001843772</v>
+        <v>0.004365217894595498</v>
       </c>
       <c r="E36">
-        <v>-0.03298277986823667</v>
+        <v>-0.02099829578434484</v>
       </c>
       <c r="F36">
-        <v>0.01557962296537071</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.03199963572725094</v>
+      </c>
+      <c r="G36">
+        <v>0.02681034740990392</v>
+      </c>
+      <c r="H36">
+        <v>-0.01464437408676068</v>
+      </c>
+      <c r="I36">
+        <v>0.067028979301245</v>
+      </c>
+      <c r="J36">
+        <v>-0.009029740025054089</v>
+      </c>
+      <c r="K36">
+        <v>-0.04687471727035485</v>
+      </c>
+      <c r="L36">
+        <v>-0.005967698553488787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.06895928527990253</v>
+        <v>0.05160046368665751</v>
       </c>
       <c r="C38">
-        <v>0.02237670737722373</v>
+        <v>0.045304285534778</v>
       </c>
       <c r="D38">
-        <v>0.01484746735146983</v>
+        <v>0.03043455325944376</v>
       </c>
       <c r="E38">
-        <v>0.01638044092039278</v>
+        <v>-0.01670115618518547</v>
       </c>
       <c r="F38">
-        <v>0.0550983031879418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01298235450568759</v>
+      </c>
+      <c r="G38">
+        <v>-0.01050910506437057</v>
+      </c>
+      <c r="H38">
+        <v>-0.01026420184621213</v>
+      </c>
+      <c r="I38">
+        <v>-0.136269440740772</v>
+      </c>
+      <c r="J38">
+        <v>-0.01777456940787477</v>
+      </c>
+      <c r="K38">
+        <v>-0.07730940699737021</v>
+      </c>
+      <c r="L38">
+        <v>-0.04453347441737567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.09187809768511107</v>
+        <v>0.09767293401424117</v>
       </c>
       <c r="C39">
-        <v>0.04545242848849472</v>
+        <v>0.05345533029954944</v>
       </c>
       <c r="D39">
-        <v>-0.04183741280519542</v>
+        <v>-0.01795163609177012</v>
       </c>
       <c r="E39">
-        <v>-0.004252117235435375</v>
+        <v>-0.01582723614217571</v>
       </c>
       <c r="F39">
-        <v>0.02140852027358475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04305287955182311</v>
+      </c>
+      <c r="G39">
+        <v>0.04879831442345352</v>
+      </c>
+      <c r="H39">
+        <v>-0.008731283605765579</v>
+      </c>
+      <c r="I39">
+        <v>0.06821410626441868</v>
+      </c>
+      <c r="J39">
+        <v>-0.169658688037135</v>
+      </c>
+      <c r="K39">
+        <v>-0.008392605479851975</v>
+      </c>
+      <c r="L39">
+        <v>0.02817533415670734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.07184341475710526</v>
+        <v>0.04481819296856215</v>
       </c>
       <c r="C40">
-        <v>0.01228988928391053</v>
+        <v>0.04050925822291229</v>
       </c>
       <c r="D40">
-        <v>-0.02241154225300294</v>
+        <v>0.05845799698259615</v>
       </c>
       <c r="E40">
-        <v>-0.01303605204574215</v>
+        <v>-0.001984426905082968</v>
       </c>
       <c r="F40">
-        <v>0.1010179879035576</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.04146646369997067</v>
+      </c>
+      <c r="G40">
+        <v>0.0916725442294281</v>
+      </c>
+      <c r="H40">
+        <v>0.1013884189622623</v>
+      </c>
+      <c r="I40">
+        <v>0.06826262825974767</v>
+      </c>
+      <c r="J40">
+        <v>-0.2531285352686807</v>
+      </c>
+      <c r="K40">
+        <v>-0.1135033560905648</v>
+      </c>
+      <c r="L40">
+        <v>-0.04827170641224263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.06000872657821044</v>
+        <v>0.04720362815041947</v>
       </c>
       <c r="C41">
-        <v>0.02429366625216605</v>
+        <v>0.02906416600447083</v>
       </c>
       <c r="D41">
-        <v>-0.009303122607372661</v>
+        <v>-0.01073807171350253</v>
       </c>
       <c r="E41">
-        <v>0.008207044394407174</v>
+        <v>0.005391790446988562</v>
       </c>
       <c r="F41">
-        <v>0.01009908996194853</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0203927634393309</v>
+      </c>
+      <c r="G41">
+        <v>0.02345564200446515</v>
+      </c>
+      <c r="H41">
+        <v>-0.0283412313782689</v>
+      </c>
+      <c r="I41">
+        <v>-0.002095346409279939</v>
+      </c>
+      <c r="J41">
+        <v>-0.0288682986668398</v>
+      </c>
+      <c r="K41">
+        <v>-0.04532907263722637</v>
+      </c>
+      <c r="L41">
+        <v>-0.02752174953736801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.06400849844586216</v>
+        <v>0.06076793618590171</v>
       </c>
       <c r="C43">
-        <v>0.0146464877702331</v>
+        <v>0.03687349162536151</v>
       </c>
       <c r="D43">
-        <v>-0.01654724695136087</v>
+        <v>-0.005814650177052675</v>
       </c>
       <c r="E43">
-        <v>-0.01832370959542872</v>
+        <v>-0.01968111718115155</v>
       </c>
       <c r="F43">
-        <v>-0.002999455749193573</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01012106909224677</v>
+      </c>
+      <c r="G43">
+        <v>0.01180356044295489</v>
+      </c>
+      <c r="H43">
+        <v>-0.0520431756233817</v>
+      </c>
+      <c r="I43">
+        <v>0.007700776158704044</v>
+      </c>
+      <c r="J43">
+        <v>-0.01828631805993199</v>
+      </c>
+      <c r="K43">
+        <v>-0.01759530575421396</v>
+      </c>
+      <c r="L43">
+        <v>-0.02873426950530896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.08870577598211722</v>
+        <v>0.09188718602532013</v>
       </c>
       <c r="C44">
-        <v>0.04665302615713684</v>
+        <v>0.05405404253034337</v>
       </c>
       <c r="D44">
-        <v>-0.007846694155641125</v>
+        <v>0.01990027284948667</v>
       </c>
       <c r="E44">
-        <v>-0.08832163607659746</v>
+        <v>-0.1054068399502957</v>
       </c>
       <c r="F44">
-        <v>0.1105758437710474</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.08000677241274703</v>
+      </c>
+      <c r="G44">
+        <v>0.08236992590081334</v>
+      </c>
+      <c r="H44">
+        <v>-0.04349887003114614</v>
+      </c>
+      <c r="I44">
+        <v>0.1115605451141467</v>
+      </c>
+      <c r="J44">
+        <v>-0.0962669722470398</v>
+      </c>
+      <c r="K44">
+        <v>-0.01386118964665682</v>
+      </c>
+      <c r="L44">
+        <v>-0.04208457183286795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.03278560209644219</v>
+        <v>0.04727462508649029</v>
       </c>
       <c r="C46">
-        <v>0.03335650536197109</v>
+        <v>0.03272487357516498</v>
       </c>
       <c r="D46">
-        <v>-0.01810391805265297</v>
+        <v>-0.008921168994072153</v>
       </c>
       <c r="E46">
-        <v>-0.01772741523104953</v>
+        <v>-0.02628841799060304</v>
       </c>
       <c r="F46">
-        <v>0.04597502514455658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04556487805007748</v>
+      </c>
+      <c r="G46">
+        <v>0.007501604378356229</v>
+      </c>
+      <c r="H46">
+        <v>-0.02249275537351186</v>
+      </c>
+      <c r="I46">
+        <v>0.03480229926232</v>
+      </c>
+      <c r="J46">
+        <v>0.02166250941140054</v>
+      </c>
+      <c r="K46">
+        <v>-0.05081658129329172</v>
+      </c>
+      <c r="L46">
+        <v>-0.04763966141676266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.03943818447308843</v>
+        <v>0.04738899650580018</v>
       </c>
       <c r="C47">
-        <v>-0.005470685988382917</v>
+        <v>0.01103175881748376</v>
       </c>
       <c r="D47">
-        <v>-0.0100618262130764</v>
+        <v>0.01290995129889348</v>
       </c>
       <c r="E47">
-        <v>-0.01640153791071146</v>
+        <v>-0.003524634950231787</v>
       </c>
       <c r="F47">
-        <v>0.06701388378517927</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04156840773104133</v>
+      </c>
+      <c r="G47">
+        <v>-0.007066789107136769</v>
+      </c>
+      <c r="H47">
+        <v>-0.02165854747495392</v>
+      </c>
+      <c r="I47">
+        <v>0.03031601636156635</v>
+      </c>
+      <c r="J47">
+        <v>0.01976129218093326</v>
+      </c>
+      <c r="K47">
+        <v>-0.002683751481164771</v>
+      </c>
+      <c r="L47">
+        <v>0.002191731812656303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.0494562703708538</v>
+        <v>0.04360554495155242</v>
       </c>
       <c r="C48">
-        <v>0.01337491716153186</v>
+        <v>0.01452378974523898</v>
       </c>
       <c r="D48">
-        <v>-0.02799330380461859</v>
+        <v>0.01039582120520175</v>
       </c>
       <c r="E48">
-        <v>-0.02574578057310566</v>
+        <v>-0.005428241096174234</v>
       </c>
       <c r="F48">
-        <v>0.03704076128237978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04077969949271856</v>
+      </c>
+      <c r="G48">
+        <v>0.006024745536077077</v>
+      </c>
+      <c r="H48">
+        <v>0.007046100514496681</v>
+      </c>
+      <c r="I48">
+        <v>0.05852274836233336</v>
+      </c>
+      <c r="J48">
+        <v>0.0001207706167521426</v>
+      </c>
+      <c r="K48">
+        <v>-0.05331216460780531</v>
+      </c>
+      <c r="L48">
+        <v>0.03144823390309633</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.1478569248515449</v>
+        <v>0.2057850026093974</v>
       </c>
       <c r="C49">
-        <v>0.01825163214914149</v>
+        <v>0.02412559949129744</v>
       </c>
       <c r="D49">
-        <v>-0.09112356271750732</v>
+        <v>-0.1835024277464163</v>
       </c>
       <c r="E49">
-        <v>-0.02778014218751169</v>
+        <v>0.02774406641888824</v>
       </c>
       <c r="F49">
-        <v>-0.1436994871651874</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.05546637540969061</v>
+      </c>
+      <c r="G49">
+        <v>-0.1609144110181842</v>
+      </c>
+      <c r="H49">
+        <v>0.1900483356072242</v>
+      </c>
+      <c r="I49">
+        <v>-0.1144538173291293</v>
+      </c>
+      <c r="J49">
+        <v>-0.1143718368553803</v>
+      </c>
+      <c r="K49">
+        <v>0.1703520891652298</v>
+      </c>
+      <c r="L49">
+        <v>-0.2011864270373608</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.06659567653409817</v>
+        <v>0.05590258272378615</v>
       </c>
       <c r="C50">
-        <v>0.02277225065380163</v>
+        <v>0.03796364738748821</v>
       </c>
       <c r="D50">
-        <v>-0.04004276766245796</v>
+        <v>-0.006969287140601443</v>
       </c>
       <c r="E50">
-        <v>-0.003135565839502224</v>
+        <v>0.01084876673552411</v>
       </c>
       <c r="F50">
-        <v>0.01942096172692892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03968137522880485</v>
+      </c>
+      <c r="G50">
+        <v>0.01815241093925757</v>
+      </c>
+      <c r="H50">
+        <v>-0.0559418941661829</v>
+      </c>
+      <c r="I50">
+        <v>0.03673964005473696</v>
+      </c>
+      <c r="J50">
+        <v>0.03346962592793756</v>
+      </c>
+      <c r="K50">
+        <v>-0.03278043256688202</v>
+      </c>
+      <c r="L50">
+        <v>0.04243180457866214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.03743650733496273</v>
+        <v>0.04032040028714908</v>
       </c>
       <c r="C51">
-        <v>-0.0007006113139794931</v>
+        <v>0.001348728094086246</v>
       </c>
       <c r="D51">
-        <v>0.01417307709283864</v>
+        <v>0.00906885124092285</v>
       </c>
       <c r="E51">
-        <v>0.001556450744084524</v>
+        <v>-0.02208449165860191</v>
       </c>
       <c r="F51">
-        <v>0.004917003827948341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03311164785793946</v>
+      </c>
+      <c r="G51">
+        <v>-0.01549880722974547</v>
+      </c>
+      <c r="H51">
+        <v>0.01890009203139838</v>
+      </c>
+      <c r="I51">
+        <v>-0.0106340780596885</v>
+      </c>
+      <c r="J51">
+        <v>-0.04316419764380004</v>
+      </c>
+      <c r="K51">
+        <v>0.06866132119462795</v>
+      </c>
+      <c r="L51">
+        <v>-0.03444878463792936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1523438807382307</v>
+        <v>0.1552275950381374</v>
       </c>
       <c r="C53">
-        <v>-0.03015929130107475</v>
+        <v>0.01430432375372572</v>
       </c>
       <c r="D53">
-        <v>-0.07495248573243558</v>
+        <v>-0.07101102786886838</v>
       </c>
       <c r="E53">
-        <v>-0.00204983706550971</v>
+        <v>0.02099409521538229</v>
       </c>
       <c r="F53">
-        <v>-0.03597613983745893</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0006564282592629767</v>
+      </c>
+      <c r="G53">
+        <v>-0.01688556823317385</v>
+      </c>
+      <c r="H53">
+        <v>-0.233813069453416</v>
+      </c>
+      <c r="I53">
+        <v>-0.06670650157873788</v>
+      </c>
+      <c r="J53">
+        <v>0.05154477974661916</v>
+      </c>
+      <c r="K53">
+        <v>0.07286696934386955</v>
+      </c>
+      <c r="L53">
+        <v>0.03869311305148133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.06299148289860039</v>
+        <v>0.06301414373981136</v>
       </c>
       <c r="C54">
-        <v>0.01485105490271217</v>
+        <v>0.01102556491740209</v>
       </c>
       <c r="D54">
-        <v>0.003571896005964795</v>
+        <v>0.02183013664590202</v>
       </c>
       <c r="E54">
-        <v>-0.04008552387774046</v>
+        <v>-0.03909571666445556</v>
       </c>
       <c r="F54">
-        <v>0.06520207003280171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.05730679352042389</v>
+      </c>
+      <c r="G54">
+        <v>0.0652509359705918</v>
+      </c>
+      <c r="H54">
+        <v>-0.0202641849910966</v>
+      </c>
+      <c r="I54">
+        <v>0.1071163409315019</v>
+      </c>
+      <c r="J54">
+        <v>0.0111419825315896</v>
+      </c>
+      <c r="K54">
+        <v>-0.07022023679715744</v>
+      </c>
+      <c r="L54">
+        <v>-0.006458039204710192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.0947172649584659</v>
+        <v>0.09516260610842339</v>
       </c>
       <c r="C55">
-        <v>-0.003418575921245108</v>
+        <v>0.02643406760139786</v>
       </c>
       <c r="D55">
-        <v>-0.05578980614497704</v>
+        <v>-0.04869496632459845</v>
       </c>
       <c r="E55">
-        <v>-0.02156147027599007</v>
+        <v>-0.005248717821846599</v>
       </c>
       <c r="F55">
-        <v>0.0180959017788149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01442309980298976</v>
+      </c>
+      <c r="G55">
+        <v>0.03422108530470028</v>
+      </c>
+      <c r="H55">
+        <v>-0.1758745810157884</v>
+      </c>
+      <c r="I55">
+        <v>0.001494463950085346</v>
+      </c>
+      <c r="J55">
+        <v>0.02743927714252985</v>
+      </c>
+      <c r="K55">
+        <v>0.0569577119380908</v>
+      </c>
+      <c r="L55">
+        <v>0.01491705923929192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1518900220758983</v>
+        <v>0.1515171545947513</v>
       </c>
       <c r="C56">
-        <v>-0.03062789666565745</v>
+        <v>0.0319611736721493</v>
       </c>
       <c r="D56">
-        <v>-0.08905292462043526</v>
+        <v>-0.07126102902021608</v>
       </c>
       <c r="E56">
-        <v>-0.04163012829625675</v>
+        <v>-0.001684232197465951</v>
       </c>
       <c r="F56">
-        <v>-0.05048286058624933</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0155238341793869</v>
+      </c>
+      <c r="G56">
+        <v>0.00229185175304801</v>
+      </c>
+      <c r="H56">
+        <v>-0.2383673690234806</v>
+      </c>
+      <c r="I56">
+        <v>-0.08536254136475339</v>
+      </c>
+      <c r="J56">
+        <v>0.03381319048770817</v>
+      </c>
+      <c r="K56">
+        <v>0.0348682583353605</v>
+      </c>
+      <c r="L56">
+        <v>0.07632414500121862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.1122556079608243</v>
+        <v>0.07353829882791811</v>
       </c>
       <c r="C58">
-        <v>0.05821965172392281</v>
+        <v>0.05194926413390338</v>
       </c>
       <c r="D58">
-        <v>0.1550605314104044</v>
+        <v>0.1739480787144712</v>
       </c>
       <c r="E58">
-        <v>-0.1206519717835297</v>
+        <v>-0.09057267141853195</v>
       </c>
       <c r="F58">
-        <v>0.2431788235060796</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.05462661819413949</v>
+      </c>
+      <c r="G58">
+        <v>-0.09569939201276655</v>
+      </c>
+      <c r="H58">
+        <v>0.1572184124642232</v>
+      </c>
+      <c r="I58">
+        <v>0.5477357682895231</v>
+      </c>
+      <c r="J58">
+        <v>-0.07795689087195931</v>
+      </c>
+      <c r="K58">
+        <v>0.2143890711824381</v>
+      </c>
+      <c r="L58">
+        <v>0.39222161982707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1447967523839872</v>
+        <v>0.1785554601093234</v>
       </c>
       <c r="C59">
-        <v>-0.4374532832575109</v>
+        <v>-0.3505767659580767</v>
       </c>
       <c r="D59">
-        <v>0.05517872233681812</v>
+        <v>0.02898066253080845</v>
       </c>
       <c r="E59">
-        <v>-0.08585278573624547</v>
+        <v>-0.03617063501725742</v>
       </c>
       <c r="F59">
-        <v>0.05731270783392736</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.03580345146267836</v>
+      </c>
+      <c r="G59">
+        <v>0.02678161586902654</v>
+      </c>
+      <c r="H59">
+        <v>-0.03706996132462504</v>
+      </c>
+      <c r="I59">
+        <v>-0.05879396477586584</v>
+      </c>
+      <c r="J59">
+        <v>-0.04794258847210949</v>
+      </c>
+      <c r="K59">
+        <v>0.001139494184988925</v>
+      </c>
+      <c r="L59">
+        <v>0.004478906653789179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2221508690117558</v>
+        <v>0.2463892367092187</v>
       </c>
       <c r="C60">
-        <v>-0.01542125268464552</v>
+        <v>0.04635842674270997</v>
       </c>
       <c r="D60">
-        <v>-0.09027553417072397</v>
+        <v>-0.1342792417413939</v>
       </c>
       <c r="E60">
-        <v>-0.05039337915519712</v>
+        <v>-0.01214844654857207</v>
       </c>
       <c r="F60">
-        <v>-0.0352714462298876</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.03497656084564826</v>
+      </c>
+      <c r="G60">
+        <v>-0.02520811450264476</v>
+      </c>
+      <c r="H60">
+        <v>0.1145207970441493</v>
+      </c>
+      <c r="I60">
+        <v>-0.09721713630045704</v>
+      </c>
+      <c r="J60">
+        <v>0.08910997972289388</v>
+      </c>
+      <c r="K60">
+        <v>0.1540467355462816</v>
+      </c>
+      <c r="L60">
+        <v>-0.06046230732847974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.07947912322112716</v>
+        <v>0.08827544262526742</v>
       </c>
       <c r="C61">
-        <v>0.02316719651582362</v>
+        <v>0.03891882174235957</v>
       </c>
       <c r="D61">
-        <v>-0.03430432851392236</v>
+        <v>-0.02116711246750574</v>
       </c>
       <c r="E61">
-        <v>-0.008920281787159395</v>
+        <v>-0.02164125985054702</v>
       </c>
       <c r="F61">
-        <v>0.008439408762937611</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03348102490978883</v>
+      </c>
+      <c r="G61">
+        <v>0.0603287783533813</v>
+      </c>
+      <c r="H61">
+        <v>-0.05629194707575738</v>
+      </c>
+      <c r="I61">
+        <v>0.0319043956439394</v>
+      </c>
+      <c r="J61">
+        <v>-0.09162066987329971</v>
+      </c>
+      <c r="K61">
+        <v>-0.0114775486456809</v>
+      </c>
+      <c r="L61">
+        <v>-0.009926867334932164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1490278242359665</v>
+        <v>0.1458851285802998</v>
       </c>
       <c r="C62">
-        <v>-0.01913624743203369</v>
+        <v>0.03921690140579895</v>
       </c>
       <c r="D62">
-        <v>-0.04600512272271615</v>
+        <v>-0.05388983613210876</v>
       </c>
       <c r="E62">
-        <v>0.02026490025264381</v>
+        <v>0.04540067364000842</v>
       </c>
       <c r="F62">
-        <v>-0.0722344609252778</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0172768630452408</v>
+      </c>
+      <c r="G62">
+        <v>0.02680271294126677</v>
+      </c>
+      <c r="H62">
+        <v>-0.2293552143142942</v>
+      </c>
+      <c r="I62">
+        <v>-0.06984551841079166</v>
+      </c>
+      <c r="J62">
+        <v>0.09497365333005142</v>
+      </c>
+      <c r="K62">
+        <v>0.03690206867450386</v>
+      </c>
+      <c r="L62">
+        <v>0.05189832628096658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.06012128162867534</v>
+        <v>0.05323029005150213</v>
       </c>
       <c r="C63">
-        <v>0.02815960788005339</v>
+        <v>0.02366824156283043</v>
       </c>
       <c r="D63">
-        <v>-0.02053762352000041</v>
+        <v>-0.0009470492518613967</v>
       </c>
       <c r="E63">
-        <v>-0.01460551071421588</v>
+        <v>0.003454435397929619</v>
       </c>
       <c r="F63">
-        <v>0.005731604799424537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0300864755008556</v>
+      </c>
+      <c r="G63">
+        <v>0.04468238902859158</v>
+      </c>
+      <c r="H63">
+        <v>-0.01866577284441616</v>
+      </c>
+      <c r="I63">
+        <v>0.05250719139408329</v>
+      </c>
+      <c r="J63">
+        <v>0.02622721596354646</v>
+      </c>
+      <c r="K63">
+        <v>-0.04058877722708441</v>
+      </c>
+      <c r="L63">
+        <v>0.01326899671202517</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.09735993502823843</v>
+        <v>0.1039658814206585</v>
       </c>
       <c r="C64">
-        <v>-0.007477671719426558</v>
+        <v>0.01704341934690926</v>
       </c>
       <c r="D64">
-        <v>-0.06224318218513294</v>
+        <v>-0.04346704381882852</v>
       </c>
       <c r="E64">
-        <v>-0.03375585579194908</v>
+        <v>-0.0301458522863303</v>
       </c>
       <c r="F64">
-        <v>0.04816833309576461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.07334518604283659</v>
+      </c>
+      <c r="G64">
+        <v>0.04605614475284259</v>
+      </c>
+      <c r="H64">
+        <v>0.02502402897766015</v>
+      </c>
+      <c r="I64">
+        <v>0.03129638688852285</v>
+      </c>
+      <c r="J64">
+        <v>-0.05681784913190484</v>
+      </c>
+      <c r="K64">
+        <v>-0.03898422446653788</v>
+      </c>
+      <c r="L64">
+        <v>-0.01287063739760262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1250139537724186</v>
+        <v>0.133673810891736</v>
       </c>
       <c r="C65">
-        <v>0.02989827729018843</v>
+        <v>0.01985556749548545</v>
       </c>
       <c r="D65">
-        <v>-0.05858290613371381</v>
+        <v>-0.06063269807990063</v>
       </c>
       <c r="E65">
-        <v>-0.05401014182356761</v>
+        <v>0.005125392879887544</v>
       </c>
       <c r="F65">
-        <v>0.09074699441198306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.06905937555014004</v>
+      </c>
+      <c r="G65">
+        <v>0.09856711784455711</v>
+      </c>
+      <c r="H65">
+        <v>0.1880150098927234</v>
+      </c>
+      <c r="I65">
+        <v>0.2197042605317656</v>
+      </c>
+      <c r="J65">
+        <v>0.6277610643989637</v>
+      </c>
+      <c r="K65">
+        <v>0.08877722845796025</v>
+      </c>
+      <c r="L65">
+        <v>0.01748728312356475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1564732460063125</v>
+        <v>0.1424589714261169</v>
       </c>
       <c r="C66">
-        <v>0.07884345613843168</v>
+        <v>0.09902953973231718</v>
       </c>
       <c r="D66">
-        <v>-0.0679580792198812</v>
+        <v>-0.02681272416515822</v>
       </c>
       <c r="E66">
-        <v>-0.01665847904500575</v>
+        <v>-0.006996637483088575</v>
       </c>
       <c r="F66">
-        <v>-0.0246391387376601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04237861433184294</v>
+      </c>
+      <c r="G66">
+        <v>0.08665688742386038</v>
+      </c>
+      <c r="H66">
+        <v>-0.02667934943708081</v>
+      </c>
+      <c r="I66">
+        <v>0.05329930959900628</v>
+      </c>
+      <c r="J66">
+        <v>-0.2541461899994705</v>
+      </c>
+      <c r="K66">
+        <v>-0.06906655273249539</v>
+      </c>
+      <c r="L66">
+        <v>-0.03034755107162812</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09937975645696374</v>
+        <v>0.09685340581660087</v>
       </c>
       <c r="C67">
-        <v>0.02534348009911433</v>
+        <v>0.05371655210337001</v>
       </c>
       <c r="D67">
-        <v>0.01852426825644419</v>
+        <v>0.01279252305771111</v>
       </c>
       <c r="E67">
-        <v>-0.004397636232427191</v>
+        <v>-0.03761022106757753</v>
       </c>
       <c r="F67">
-        <v>0.01311527724552523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0293176278468317</v>
+      </c>
+      <c r="G67">
+        <v>0.01762973421785067</v>
+      </c>
+      <c r="H67">
+        <v>0.007856916855726646</v>
+      </c>
+      <c r="I67">
+        <v>-0.1497117975020449</v>
+      </c>
+      <c r="J67">
+        <v>-0.04552732200779019</v>
+      </c>
+      <c r="K67">
+        <v>-0.05065035210932855</v>
+      </c>
+      <c r="L67">
+        <v>-0.0752936187706815</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.05108924594587216</v>
+        <v>0.08407572082911145</v>
       </c>
       <c r="C68">
-        <v>-0.2561871706446351</v>
+        <v>-0.2756048392336436</v>
       </c>
       <c r="D68">
-        <v>0.03469395657241072</v>
+        <v>0.0386933275860618</v>
       </c>
       <c r="E68">
-        <v>-0.04265766475201684</v>
+        <v>-0.02802003512915112</v>
       </c>
       <c r="F68">
-        <v>0.03919374255378653</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02727723279127914</v>
+      </c>
+      <c r="G68">
+        <v>-0.01554709952742866</v>
+      </c>
+      <c r="H68">
+        <v>-0.01992891664502951</v>
+      </c>
+      <c r="I68">
+        <v>0.04202557079650317</v>
+      </c>
+      <c r="J68">
+        <v>0.04666908335349794</v>
+      </c>
+      <c r="K68">
+        <v>-0.01538078987261804</v>
+      </c>
+      <c r="L68">
+        <v>0.03282748528495801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.06738471242517398</v>
+        <v>0.05617463902365288</v>
       </c>
       <c r="C69">
-        <v>0.01270533652708431</v>
+        <v>0.01803204532076202</v>
       </c>
       <c r="D69">
-        <v>-0.00124660336596776</v>
+        <v>0.01445487742636718</v>
       </c>
       <c r="E69">
-        <v>-0.01827059109584847</v>
+        <v>0.00346156179267978</v>
       </c>
       <c r="F69">
-        <v>0.009899257963075982</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.001026200303646804</v>
+      </c>
+      <c r="G69">
+        <v>0.01908360378268912</v>
+      </c>
+      <c r="H69">
+        <v>-0.0355655230584137</v>
+      </c>
+      <c r="I69">
+        <v>0.00779119915647485</v>
+      </c>
+      <c r="J69">
+        <v>-0.009727206205141175</v>
+      </c>
+      <c r="K69">
+        <v>0.0003476267679504861</v>
+      </c>
+      <c r="L69">
+        <v>0.009243113949262808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.01580033320658395</v>
+        <v>0.04158045109286721</v>
       </c>
       <c r="C70">
-        <v>-0.0126282975565292</v>
+        <v>0.004898166130191168</v>
       </c>
       <c r="D70">
-        <v>0.004745065928490482</v>
+        <v>-0.02194508985937668</v>
       </c>
       <c r="E70">
-        <v>0.01397551098387391</v>
+        <v>0.005410728077445503</v>
       </c>
       <c r="F70">
-        <v>-0.01012576917948801</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.05140644055026865</v>
+      </c>
+      <c r="G70">
+        <v>0.01130868979812398</v>
+      </c>
+      <c r="H70">
+        <v>0.02550648905873407</v>
+      </c>
+      <c r="I70">
+        <v>-0.03560178691476389</v>
+      </c>
+      <c r="J70">
+        <v>-0.02721909660767406</v>
+      </c>
+      <c r="K70">
+        <v>-0.1369355153200026</v>
+      </c>
+      <c r="L70">
+        <v>-0.09867318362049966</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.04837746409885697</v>
+        <v>0.09418399374494757</v>
       </c>
       <c r="C71">
-        <v>-0.2824722593484335</v>
+        <v>-0.2959356037100195</v>
       </c>
       <c r="D71">
-        <v>0.03885938709041455</v>
+        <v>0.02641527925159261</v>
       </c>
       <c r="E71">
-        <v>-0.07287583007259121</v>
+        <v>-0.04715490029980925</v>
       </c>
       <c r="F71">
-        <v>0.02690797380480386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02775899915792946</v>
+      </c>
+      <c r="G71">
+        <v>-0.001200829610108203</v>
+      </c>
+      <c r="H71">
+        <v>-0.01403900499482313</v>
+      </c>
+      <c r="I71">
+        <v>0.02122306666320733</v>
+      </c>
+      <c r="J71">
+        <v>0.00979611313779862</v>
+      </c>
+      <c r="K71">
+        <v>-0.00372201460046227</v>
+      </c>
+      <c r="L71">
+        <v>-0.01176394310142569</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.145793397024391</v>
+        <v>0.1356537985223401</v>
       </c>
       <c r="C72">
-        <v>-0.03951765579660826</v>
+        <v>0.0009685033037234413</v>
       </c>
       <c r="D72">
-        <v>-0.04111912372669003</v>
+        <v>0.01997753772893922</v>
       </c>
       <c r="E72">
-        <v>0.23677166724115</v>
+        <v>0.1744937207485876</v>
       </c>
       <c r="F72">
-        <v>0.03141035688723133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.00578419516797756</v>
+      </c>
+      <c r="G72">
+        <v>0.124326448148233</v>
+      </c>
+      <c r="H72">
+        <v>-0.01012820426097993</v>
+      </c>
+      <c r="I72">
+        <v>-0.007239413835476842</v>
+      </c>
+      <c r="J72">
+        <v>0.09434777158819196</v>
+      </c>
+      <c r="K72">
+        <v>0.1190531410173498</v>
+      </c>
+      <c r="L72">
+        <v>-0.09403438448531146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2477675987048988</v>
+        <v>0.2421127359514143</v>
       </c>
       <c r="C73">
-        <v>0.04888491333400776</v>
+        <v>0.1023457800123444</v>
       </c>
       <c r="D73">
-        <v>-0.1046179736357512</v>
+        <v>-0.2205879918477095</v>
       </c>
       <c r="E73">
-        <v>-0.08975428300498611</v>
+        <v>-0.03809986373371343</v>
       </c>
       <c r="F73">
-        <v>-0.1970667832264535</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1999029455583947</v>
+      </c>
+      <c r="G73">
+        <v>-0.2545684156548271</v>
+      </c>
+      <c r="H73">
+        <v>0.2971883699611945</v>
+      </c>
+      <c r="I73">
+        <v>-0.1051700551978585</v>
+      </c>
+      <c r="J73">
+        <v>-0.2113250391520821</v>
+      </c>
+      <c r="K73">
+        <v>0.4677070635904093</v>
+      </c>
+      <c r="L73">
+        <v>0.1250513267644087</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.08673205515286311</v>
+        <v>0.09292423887009431</v>
       </c>
       <c r="C74">
-        <v>-0.01580610525800528</v>
+        <v>0.03335736618997834</v>
       </c>
       <c r="D74">
-        <v>-0.06139255490379717</v>
+        <v>-0.04573525980061868</v>
       </c>
       <c r="E74">
-        <v>-0.008077765123993576</v>
+        <v>0.0155777771957348</v>
       </c>
       <c r="F74">
-        <v>0.008367467574163361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02227880731468346</v>
+      </c>
+      <c r="G74">
+        <v>-0.02647515414797781</v>
+      </c>
+      <c r="H74">
+        <v>-0.1438303997332283</v>
+      </c>
+      <c r="I74">
+        <v>-0.01198641173109246</v>
+      </c>
+      <c r="J74">
+        <v>-0.01434697468506309</v>
+      </c>
+      <c r="K74">
+        <v>0.06351900034516522</v>
+      </c>
+      <c r="L74">
+        <v>0.04155960989639188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.1211878975665747</v>
+        <v>0.1043836822929317</v>
       </c>
       <c r="C75">
-        <v>-0.002027890955920575</v>
+        <v>0.03085110133519104</v>
       </c>
       <c r="D75">
-        <v>-0.001046793800782622</v>
+        <v>0.01080197194939352</v>
       </c>
       <c r="E75">
-        <v>-0.02234581430097521</v>
+        <v>0.004125812138658321</v>
       </c>
       <c r="F75">
-        <v>-0.02854230387391984</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03520758793262711</v>
+      </c>
+      <c r="G75">
+        <v>-0.01295702838053661</v>
+      </c>
+      <c r="H75">
+        <v>-0.1293601469095577</v>
+      </c>
+      <c r="I75">
+        <v>-0.02571490391885045</v>
+      </c>
+      <c r="J75">
+        <v>0.04824620181621075</v>
+      </c>
+      <c r="K75">
+        <v>0.02565692809126023</v>
+      </c>
+      <c r="L75">
+        <v>0.05464590206947952</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.138976136715937</v>
+        <v>0.1247037539738234</v>
       </c>
       <c r="C76">
-        <v>-0.007429726916649543</v>
+        <v>0.05130102218448374</v>
       </c>
       <c r="D76">
-        <v>-0.07493648419072736</v>
+        <v>-0.06089999197907429</v>
       </c>
       <c r="E76">
-        <v>-0.02163201112520615</v>
+        <v>-0.004088789488679519</v>
       </c>
       <c r="F76">
-        <v>0.004979911672744687</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.02209629351505614</v>
+      </c>
+      <c r="G76">
+        <v>-0.01075988535663267</v>
+      </c>
+      <c r="H76">
+        <v>-0.2575789804266403</v>
+      </c>
+      <c r="I76">
+        <v>-0.05494202189212079</v>
+      </c>
+      <c r="J76">
+        <v>0.05479307230420406</v>
+      </c>
+      <c r="K76">
+        <v>0.0476236560481673</v>
+      </c>
+      <c r="L76">
+        <v>0.1407587024979559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.1271298374028133</v>
+        <v>0.08833446056044079</v>
       </c>
       <c r="C77">
-        <v>0.03802978323991249</v>
+        <v>0.03038896050446946</v>
       </c>
       <c r="D77">
-        <v>0.104926431046582</v>
+        <v>0.1581959627475212</v>
       </c>
       <c r="E77">
-        <v>-0.02192811645592649</v>
+        <v>-0.1220475602797849</v>
       </c>
       <c r="F77">
-        <v>0.3500699578294438</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01490195056187016</v>
+      </c>
+      <c r="G77">
+        <v>0.6895744237606525</v>
+      </c>
+      <c r="H77">
+        <v>0.2708751093728106</v>
+      </c>
+      <c r="I77">
+        <v>-0.4170789395529487</v>
+      </c>
+      <c r="J77">
+        <v>-0.02966951722071073</v>
+      </c>
+      <c r="K77">
+        <v>0.06997220469252333</v>
+      </c>
+      <c r="L77">
+        <v>0.2479262757271222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1254009936271874</v>
+        <v>0.1634617215212663</v>
       </c>
       <c r="C78">
-        <v>0.07013163233460823</v>
+        <v>0.08080922483616405</v>
       </c>
       <c r="D78">
-        <v>-0.04324343001667803</v>
+        <v>0.02702028898508383</v>
       </c>
       <c r="E78">
-        <v>-0.01334521011586183</v>
+        <v>-0.08679990065963432</v>
       </c>
       <c r="F78">
-        <v>0.09190915756223225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1479030109840415</v>
+      </c>
+      <c r="G78">
+        <v>0.03262866892153206</v>
+      </c>
+      <c r="H78">
+        <v>0.09157567004393521</v>
+      </c>
+      <c r="I78">
+        <v>0.03637778516759795</v>
+      </c>
+      <c r="J78">
+        <v>-0.004248797178110161</v>
+      </c>
+      <c r="K78">
+        <v>0.09361399129365935</v>
+      </c>
+      <c r="L78">
+        <v>-0.5663813924215116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1491414353544645</v>
+        <v>0.1435428051400659</v>
       </c>
       <c r="C79">
-        <v>0.01809240699852175</v>
+        <v>0.04395168561771786</v>
       </c>
       <c r="D79">
-        <v>-0.07228055735422513</v>
+        <v>-0.04694331010113724</v>
       </c>
       <c r="E79">
-        <v>-0.004111085357081603</v>
+        <v>0.005408863437957052</v>
       </c>
       <c r="F79">
-        <v>-0.05533836473482744</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01694032191570563</v>
+      </c>
+      <c r="G79">
+        <v>0.02870997632556424</v>
+      </c>
+      <c r="H79">
+        <v>-0.1879636989667898</v>
+      </c>
+      <c r="I79">
+        <v>-0.06265639975023876</v>
+      </c>
+      <c r="J79">
+        <v>0.06892535791714376</v>
+      </c>
+      <c r="K79">
+        <v>0.034872016736538</v>
+      </c>
+      <c r="L79">
+        <v>0.05311846240845501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03901961963093493</v>
+        <v>0.04516241303289104</v>
       </c>
       <c r="C80">
-        <v>0.02422653106886602</v>
+        <v>0.009349272750835021</v>
       </c>
       <c r="D80">
-        <v>-0.01876176235982266</v>
+        <v>-0.05678554988541067</v>
       </c>
       <c r="E80">
-        <v>-0.004591433681319589</v>
+        <v>0.0124379662045262</v>
       </c>
       <c r="F80">
-        <v>-0.0008887115864610401</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02432454754923633</v>
+      </c>
+      <c r="G80">
+        <v>0.002577477096152102</v>
+      </c>
+      <c r="H80">
+        <v>0.03259315249489209</v>
+      </c>
+      <c r="I80">
+        <v>0.07463979645463217</v>
+      </c>
+      <c r="J80">
+        <v>-0.04040268677770945</v>
+      </c>
+      <c r="K80">
+        <v>-0.03382759381438649</v>
+      </c>
+      <c r="L80">
+        <v>-0.06651867489805778</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1360371255199283</v>
+        <v>0.1326213430259756</v>
       </c>
       <c r="C81">
-        <v>-0.001018055402903697</v>
+        <v>0.01952323405263791</v>
       </c>
       <c r="D81">
-        <v>-0.06154249799248202</v>
+        <v>-0.0392235291558642</v>
       </c>
       <c r="E81">
-        <v>-0.03029799444797727</v>
+        <v>0.007795127168566849</v>
       </c>
       <c r="F81">
-        <v>-0.04425639778998358</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01613617415376438</v>
+      </c>
+      <c r="G81">
+        <v>-0.001717476140615375</v>
+      </c>
+      <c r="H81">
+        <v>-0.1459717260593436</v>
+      </c>
+      <c r="I81">
+        <v>-0.02947456131502325</v>
+      </c>
+      <c r="J81">
+        <v>-0.02637051236681304</v>
+      </c>
+      <c r="K81">
+        <v>-0.01842721765359196</v>
+      </c>
+      <c r="L81">
+        <v>0.04491056235988054</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.122744048922793</v>
+        <v>0.1262264519598833</v>
       </c>
       <c r="C82">
-        <v>0.01678361049877121</v>
+        <v>0.02972080521085964</v>
       </c>
       <c r="D82">
-        <v>-0.04039173372429353</v>
+        <v>-0.04484832101672474</v>
       </c>
       <c r="E82">
-        <v>-0.03873026102773021</v>
+        <v>0.008043022217257117</v>
       </c>
       <c r="F82">
-        <v>-0.05549861998152603</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.009005815362556575</v>
+      </c>
+      <c r="G82">
+        <v>-0.01506961955982304</v>
+      </c>
+      <c r="H82">
+        <v>-0.2799223939329883</v>
+      </c>
+      <c r="I82">
+        <v>-0.05755445135541077</v>
+      </c>
+      <c r="J82">
+        <v>-0.007149248672668404</v>
+      </c>
+      <c r="K82">
+        <v>-0.002718805239122542</v>
+      </c>
+      <c r="L82">
+        <v>0.1054090504130779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.05484829661421852</v>
+        <v>0.07649959322701623</v>
       </c>
       <c r="C83">
-        <v>0.02196532162196907</v>
+        <v>0.0357735292489546</v>
       </c>
       <c r="D83">
-        <v>0.0740302330032282</v>
+        <v>0.01654384262533653</v>
       </c>
       <c r="E83">
-        <v>-0.01398477854313319</v>
+        <v>-0.02287257274089905</v>
       </c>
       <c r="F83">
-        <v>-0.08665377527962248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.08885985576331448</v>
+      </c>
+      <c r="G83">
+        <v>-0.03376794752093447</v>
+      </c>
+      <c r="H83">
+        <v>0.0506869886896679</v>
+      </c>
+      <c r="I83">
+        <v>0.07317018388302579</v>
+      </c>
+      <c r="J83">
+        <v>-0.04033652434812163</v>
+      </c>
+      <c r="K83">
+        <v>-0.05932203452981685</v>
+      </c>
+      <c r="L83">
+        <v>-0.07900202156370531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05136217211304639</v>
+        <v>0.03216295607560533</v>
       </c>
       <c r="C84">
-        <v>0.009451085953277099</v>
+        <v>0.04298201091577104</v>
       </c>
       <c r="D84">
-        <v>-0.04823310853335945</v>
+        <v>0.01015881116524922</v>
       </c>
       <c r="E84">
-        <v>0.02130817939778164</v>
+        <v>0.03667344995341089</v>
       </c>
       <c r="F84">
-        <v>0.005584819264455536</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05841419850033127</v>
+      </c>
+      <c r="G84">
+        <v>-0.04206822266879934</v>
+      </c>
+      <c r="H84">
+        <v>-0.02106913202352182</v>
+      </c>
+      <c r="I84">
+        <v>0.09558783507487556</v>
+      </c>
+      <c r="J84">
+        <v>-0.03815824227174804</v>
+      </c>
+      <c r="K84">
+        <v>-0.1039566965315509</v>
+      </c>
+      <c r="L84">
+        <v>-0.04878341437687026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.1109342270796243</v>
+        <v>0.1199593500606202</v>
       </c>
       <c r="C85">
-        <v>0.03546266917688384</v>
+        <v>0.037018753256727</v>
       </c>
       <c r="D85">
-        <v>-0.03518156787905197</v>
+        <v>-0.03757770126378946</v>
       </c>
       <c r="E85">
-        <v>-0.05812523660109881</v>
+        <v>-0.03695485023282882</v>
       </c>
       <c r="F85">
-        <v>0.006040505133820645</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.01178078421440454</v>
+      </c>
+      <c r="G85">
+        <v>0.02038340309533165</v>
+      </c>
+      <c r="H85">
+        <v>-0.1992078664949024</v>
+      </c>
+      <c r="I85">
+        <v>-0.03593437923173051</v>
+      </c>
+      <c r="J85">
+        <v>0.0627179486854899</v>
+      </c>
+      <c r="K85">
+        <v>0.0357991025747126</v>
+      </c>
+      <c r="L85">
+        <v>0.03841207889096818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.07630113151542241</v>
+        <v>0.06959096230815236</v>
       </c>
       <c r="C86">
-        <v>0.06693662699912842</v>
+        <v>0.03475761309412536</v>
       </c>
       <c r="D86">
-        <v>-0.0286501027505516</v>
+        <v>0.01363202050230018</v>
       </c>
       <c r="E86">
-        <v>-0.01105441459446834</v>
+        <v>-0.01768142447719135</v>
       </c>
       <c r="F86">
-        <v>0.03151413204811927</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03064851299818962</v>
+      </c>
+      <c r="G86">
+        <v>-0.008512406020698216</v>
+      </c>
+      <c r="H86">
+        <v>0.02657883107536743</v>
+      </c>
+      <c r="I86">
+        <v>-0.009545350765751507</v>
+      </c>
+      <c r="J86">
+        <v>0.007222300166037246</v>
+      </c>
+      <c r="K86">
+        <v>-0.07190484200551232</v>
+      </c>
+      <c r="L86">
+        <v>-0.3835324043854606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1257430784084619</v>
+        <v>0.1266332982425921</v>
       </c>
       <c r="C87">
-        <v>0.06086827745883493</v>
+        <v>0.07024271135988168</v>
       </c>
       <c r="D87">
-        <v>-0.05978408200437685</v>
+        <v>0.003498248310997916</v>
       </c>
       <c r="E87">
-        <v>-0.04098367837570732</v>
+        <v>-0.02384976922541357</v>
       </c>
       <c r="F87">
-        <v>0.1790263913709443</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.09639235465468178</v>
+      </c>
+      <c r="G87">
+        <v>0.1953218086077902</v>
+      </c>
+      <c r="H87">
+        <v>0.0987511283464847</v>
+      </c>
+      <c r="I87">
+        <v>-0.05894393910212191</v>
+      </c>
+      <c r="J87">
+        <v>-0.02476994250538945</v>
+      </c>
+      <c r="K87">
+        <v>-0.02915071325098945</v>
+      </c>
+      <c r="L87">
+        <v>0.08324041244632363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.05793234610871371</v>
+        <v>0.06517112199340082</v>
       </c>
       <c r="C88">
-        <v>0.02270298851518254</v>
+        <v>0.03868751041416286</v>
       </c>
       <c r="D88">
-        <v>-0.02557430781598189</v>
+        <v>-0.03824839062854752</v>
       </c>
       <c r="E88">
-        <v>-0.01068060904596738</v>
+        <v>-0.006324453220496802</v>
       </c>
       <c r="F88">
-        <v>0.006298278582802228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.005741113592011909</v>
+      </c>
+      <c r="G88">
+        <v>0.01853060593770722</v>
+      </c>
+      <c r="H88">
+        <v>-0.01820491279541634</v>
+      </c>
+      <c r="I88">
+        <v>0.03125853596009163</v>
+      </c>
+      <c r="J88">
+        <v>-0.04079599013866</v>
+      </c>
+      <c r="K88">
+        <v>-0.03072046219458382</v>
+      </c>
+      <c r="L88">
+        <v>-0.02191126199449151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.08660012843843601</v>
+        <v>0.1550667929568864</v>
       </c>
       <c r="C89">
-        <v>-0.3274570169613288</v>
+        <v>-0.3728759106827979</v>
       </c>
       <c r="D89">
-        <v>0.04734537776121757</v>
+        <v>0.0151859722479524</v>
       </c>
       <c r="E89">
-        <v>-0.11297836824229</v>
+        <v>-0.09141383937193362</v>
       </c>
       <c r="F89">
-        <v>0.05839653595724911</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01125977109007879</v>
+      </c>
+      <c r="G89">
+        <v>-0.02852485392332422</v>
+      </c>
+      <c r="H89">
+        <v>0.005852801160692886</v>
+      </c>
+      <c r="I89">
+        <v>0.06381419112753821</v>
+      </c>
+      <c r="J89">
+        <v>-0.09013044093354923</v>
+      </c>
+      <c r="K89">
+        <v>0.01629120959235901</v>
+      </c>
+      <c r="L89">
+        <v>0.02108331165470551</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.07260094142532901</v>
+        <v>0.1078025621857138</v>
       </c>
       <c r="C90">
-        <v>-0.2847176437223153</v>
+        <v>-0.2794814724508342</v>
       </c>
       <c r="D90">
-        <v>0.06309549787279259</v>
+        <v>0.03487178888588951</v>
       </c>
       <c r="E90">
-        <v>-0.04863749337194096</v>
+        <v>-0.04104534705968558</v>
       </c>
       <c r="F90">
-        <v>0.06338380368088066</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.00664561658464106</v>
+      </c>
+      <c r="G90">
+        <v>0.03182833148268448</v>
+      </c>
+      <c r="H90">
+        <v>0.03675457996784808</v>
+      </c>
+      <c r="I90">
+        <v>0.04727287399159468</v>
+      </c>
+      <c r="J90">
+        <v>-0.05862249679177378</v>
+      </c>
+      <c r="K90">
+        <v>0.009577860846786102</v>
+      </c>
+      <c r="L90">
+        <v>-0.00993714335688487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.1022036191995466</v>
+        <v>0.08723902180664092</v>
       </c>
       <c r="C91">
-        <v>0.01067951970284755</v>
+        <v>0.0390710393333015</v>
       </c>
       <c r="D91">
-        <v>-0.03500278527051277</v>
+        <v>-0.007634750265512982</v>
       </c>
       <c r="E91">
-        <v>-0.01542745158281135</v>
+        <v>0.001232354096355408</v>
       </c>
       <c r="F91">
-        <v>-0.007697715291770048</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.002813386989168413</v>
+      </c>
+      <c r="G91">
+        <v>-0.02887831659201799</v>
+      </c>
+      <c r="H91">
+        <v>-0.08762347962894675</v>
+      </c>
+      <c r="I91">
+        <v>-0.01754334067127513</v>
+      </c>
+      <c r="J91">
+        <v>0.02783255027736821</v>
+      </c>
+      <c r="K91">
+        <v>0.03219257152440534</v>
+      </c>
+      <c r="L91">
+        <v>0.08628491287853092</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.05598586585158252</v>
+        <v>0.1097727616357332</v>
       </c>
       <c r="C92">
-        <v>-0.3333884458052312</v>
+        <v>-0.3371456601693807</v>
       </c>
       <c r="D92">
-        <v>0.02641075075687446</v>
+        <v>0.01780206335117317</v>
       </c>
       <c r="E92">
-        <v>-0.08237150411357125</v>
+        <v>-0.05148818692886892</v>
       </c>
       <c r="F92">
-        <v>0.01542903451350291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03243178339116073</v>
+      </c>
+      <c r="G92">
+        <v>-0.02257034873088444</v>
+      </c>
+      <c r="H92">
+        <v>-0.02248819461844534</v>
+      </c>
+      <c r="I92">
+        <v>0.01833278040368828</v>
+      </c>
+      <c r="J92">
+        <v>-0.02433545125209353</v>
+      </c>
+      <c r="K92">
+        <v>-0.004714922982568702</v>
+      </c>
+      <c r="L92">
+        <v>-0.01735971055216577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.05733549980423004</v>
+        <v>0.1122537821207694</v>
       </c>
       <c r="C93">
-        <v>-0.2907802270202873</v>
+        <v>-0.3078879408714215</v>
       </c>
       <c r="D93">
-        <v>0.03192203910892572</v>
+        <v>0.006360827664328766</v>
       </c>
       <c r="E93">
-        <v>-0.05016151802501845</v>
+        <v>-0.02493030239331156</v>
       </c>
       <c r="F93">
-        <v>0.03650743994410798</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.005084451919505213</v>
+      </c>
+      <c r="G93">
+        <v>-0.000634642211190886</v>
+      </c>
+      <c r="H93">
+        <v>0.01503476187333192</v>
+      </c>
+      <c r="I93">
+        <v>0.002570176889797947</v>
+      </c>
+      <c r="J93">
+        <v>0.0003349092085607986</v>
+      </c>
+      <c r="K93">
+        <v>-0.03757176450859209</v>
+      </c>
+      <c r="L93">
+        <v>-0.008431624548866029</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.1253400582317095</v>
+        <v>0.1194681627115591</v>
       </c>
       <c r="C94">
-        <v>0.05721470047982609</v>
+        <v>0.06103934308728134</v>
       </c>
       <c r="D94">
-        <v>-0.03347440048087526</v>
+        <v>-0.01027935199916667</v>
       </c>
       <c r="E94">
-        <v>-0.0337775396209168</v>
+        <v>-0.02444198080142216</v>
       </c>
       <c r="F94">
-        <v>-0.02289999417442018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.006211801769630092</v>
+      </c>
+      <c r="G94">
+        <v>-0.05606166567501362</v>
+      </c>
+      <c r="H94">
+        <v>-0.1288382192715442</v>
+      </c>
+      <c r="I94">
+        <v>-0.003617417343709451</v>
+      </c>
+      <c r="J94">
+        <v>0.02649108958542797</v>
+      </c>
+      <c r="K94">
+        <v>0.03278905336745803</v>
+      </c>
+      <c r="L94">
+        <v>0.05789408273608747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1209611230086868</v>
+        <v>0.1334638678834472</v>
       </c>
       <c r="C95">
-        <v>0.08617749816465997</v>
+        <v>0.07491112065430861</v>
       </c>
       <c r="D95">
-        <v>-0.0813895975507247</v>
+        <v>-0.03423361454250008</v>
       </c>
       <c r="E95">
-        <v>-0.07977401371660345</v>
+        <v>-0.04961543643757278</v>
       </c>
       <c r="F95">
-        <v>-0.04931765883527428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.06407191954214063</v>
+      </c>
+      <c r="G95">
+        <v>0.02502610460577266</v>
+      </c>
+      <c r="H95">
+        <v>0.130364569000243</v>
+      </c>
+      <c r="I95">
+        <v>0.08164270067886997</v>
+      </c>
+      <c r="J95">
+        <v>-0.03083526892556089</v>
+      </c>
+      <c r="K95">
+        <v>-0.02585225677261073</v>
+      </c>
+      <c r="L95">
+        <v>0.05209920740843661</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2511225602851972</v>
+        <v>0.1878785144772358</v>
       </c>
       <c r="C97">
-        <v>-0.1411491439796763</v>
+        <v>-0.03742035458471147</v>
       </c>
       <c r="D97">
-        <v>-0.03974887456560529</v>
+        <v>0.2881012190661161</v>
       </c>
       <c r="E97">
-        <v>0.8874861720839274</v>
+        <v>0.8924889277462376</v>
       </c>
       <c r="F97">
-        <v>0.02092055975602664</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.03658022428196014</v>
+      </c>
+      <c r="G97">
+        <v>0.03882826851802078</v>
+      </c>
+      <c r="H97">
+        <v>0.06608225809098672</v>
+      </c>
+      <c r="I97">
+        <v>0.03957413990836063</v>
+      </c>
+      <c r="J97">
+        <v>-0.07448899322576344</v>
+      </c>
+      <c r="K97">
+        <v>0.03596665424049474</v>
+      </c>
+      <c r="L97">
+        <v>0.007590747359741661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.285911416365382</v>
+        <v>0.2826859015570924</v>
       </c>
       <c r="C98">
-        <v>0.04183892296603507</v>
+        <v>0.0961087868752649</v>
       </c>
       <c r="D98">
-        <v>0.009405269465668407</v>
+        <v>-0.1231296402821637</v>
       </c>
       <c r="E98">
-        <v>-0.09344894084135254</v>
+        <v>0.04279121107859477</v>
       </c>
       <c r="F98">
-        <v>-0.5323347076250001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2777434986715273</v>
+      </c>
+      <c r="G98">
+        <v>-0.3021793328724987</v>
+      </c>
+      <c r="H98">
+        <v>0.2607000459812869</v>
+      </c>
+      <c r="I98">
+        <v>-0.2027240079008733</v>
+      </c>
+      <c r="J98">
+        <v>0.1171006102152682</v>
+      </c>
+      <c r="K98">
+        <v>-0.6041959342192003</v>
+      </c>
+      <c r="L98">
+        <v>0.1936805845586356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.2569775219071577</v>
+        <v>0.1569464997713369</v>
       </c>
       <c r="C99">
-        <v>0.1561592729737887</v>
+        <v>0.1054541713034592</v>
       </c>
       <c r="D99">
-        <v>0.8912792364530773</v>
+        <v>0.5879323066364142</v>
       </c>
       <c r="E99">
-        <v>0.01499981645295656</v>
+        <v>-0.1902398563299058</v>
       </c>
       <c r="F99">
-        <v>-0.1217420031230868</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.653147405023958</v>
+      </c>
+      <c r="G99">
+        <v>0.03256416284686994</v>
+      </c>
+      <c r="H99">
+        <v>-0.1427898713638849</v>
+      </c>
+      <c r="I99">
+        <v>0.08340114017017533</v>
+      </c>
+      <c r="J99">
+        <v>0.06410068568316429</v>
+      </c>
+      <c r="K99">
+        <v>0.03555431301363902</v>
+      </c>
+      <c r="L99">
+        <v>-0.1734683403246205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05692042256633081</v>
+        <v>0.05368896026612582</v>
       </c>
       <c r="C101">
-        <v>-0.004509473104271238</v>
+        <v>0.01122334066399718</v>
       </c>
       <c r="D101">
-        <v>-0.03178607356257317</v>
+        <v>-0.01619141649541484</v>
       </c>
       <c r="E101">
-        <v>-0.0236073156014653</v>
+        <v>-0.02205057413989887</v>
       </c>
       <c r="F101">
-        <v>0.03381578444030364</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03903553246197972</v>
+      </c>
+      <c r="G101">
+        <v>0.02969020153072765</v>
+      </c>
+      <c r="H101">
+        <v>-0.05485062293319541</v>
+      </c>
+      <c r="I101">
+        <v>0.03527626031095252</v>
+      </c>
+      <c r="J101">
+        <v>0.01044619461587018</v>
+      </c>
+      <c r="K101">
+        <v>-0.03905983662379962</v>
+      </c>
+      <c r="L101">
+        <v>-0.001343189423799666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
